--- a/TestFile.xlsx
+++ b/TestFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Polina-s-test-project-/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">test file </t>
+    <t>test file  1</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
